--- a/data/trans_dic/P1421-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1421-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02178378520179977</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1020083087438619</v>
+        <v>0.102008308743862</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02157448269511163</v>
@@ -697,7 +697,7 @@
         <v>0.0153856415089029</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06481918775424779</v>
+        <v>0.0648191877542478</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003699829130309496</v>
+        <v>0.003691070066689985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007005810337483914</v>
+        <v>0.00650033231541706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002309597757777444</v>
+        <v>0.002308356368252394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01184812450440685</v>
+        <v>0.0102318835418449</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01969677478043147</v>
+        <v>0.01858143992234176</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01912905703152851</v>
+        <v>0.01860799311464493</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009945373552374523</v>
+        <v>0.01146632715512803</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06713254504355176</v>
+        <v>0.06416638930555152</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01405714433154114</v>
+        <v>0.01307471737741474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01535927264841328</v>
+        <v>0.01470806045691813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008253695264486804</v>
+        <v>0.008515767820362655</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04354982412166593</v>
+        <v>0.04370235185307224</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02633251802507133</v>
+        <v>0.02657166873065367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03110087760716474</v>
+        <v>0.02948707770308991</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02309563523794269</v>
+        <v>0.02340050438946478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07370076212340777</v>
+        <v>0.06904869246085225</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0503747711417785</v>
+        <v>0.05112176063491226</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05737209870504408</v>
+        <v>0.05756867847969089</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04050141192769397</v>
+        <v>0.03943229084259888</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1537389670502434</v>
+        <v>0.1550657745161411</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03379026078341205</v>
+        <v>0.03209585504731275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03812415382187857</v>
+        <v>0.03642743484974884</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02459852206152416</v>
+        <v>0.0255917723331444</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09168727530062427</v>
+        <v>0.09399699055406813</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.007190477216934251</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04592917658086313</v>
+        <v>0.04592917658086314</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07602457931988801</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01215901089468661</v>
+        <v>0.01188595823880078</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005153505538622457</v>
+        <v>0.005341076574378531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001761328727145417</v>
+        <v>0.001760623949843248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02635805434263589</v>
+        <v>0.02626722745202663</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05689297294761338</v>
+        <v>0.0582739537025369</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02109954093355003</v>
+        <v>0.02252262293238595</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04726653868425086</v>
+        <v>0.04725336750308237</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07751759916568929</v>
+        <v>0.07836409399329032</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03593848054655065</v>
+        <v>0.03584595359199101</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01560169149644669</v>
+        <v>0.01524575323876295</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02496640081075394</v>
+        <v>0.02612592498466804</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05947688739460989</v>
+        <v>0.05914944016802182</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03314817590164142</v>
+        <v>0.03296078022476051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02018965899416482</v>
+        <v>0.0226558348916933</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01819933314371899</v>
+        <v>0.01715441439490855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0762997121071799</v>
+        <v>0.07613526791063559</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1021964738425821</v>
+        <v>0.1000493216995472</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05343419232207834</v>
+        <v>0.05230580448847769</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08784062246382053</v>
+        <v>0.08746430611780295</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1358350284797468</v>
+        <v>0.137100649072167</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05909821273932127</v>
+        <v>0.05838158868073845</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03152888441420185</v>
+        <v>0.03166013893161571</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04708677245313903</v>
+        <v>0.04782341824593898</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.094978514378232</v>
+        <v>0.09678136679970027</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01196802649628805</v>
+        <v>0.0120222280320034</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007809522375709454</v>
+        <v>0.008658585055053739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004559072614713791</v>
+        <v>0.004459081722061469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03359439591861361</v>
+        <v>0.0325362583030536</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0456502662238855</v>
+        <v>0.04251801645613187</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0522093417173054</v>
+        <v>0.05454164847427445</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01851144551653232</v>
+        <v>0.01882706205346854</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08579108465820617</v>
+        <v>0.08519531108832389</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03179599196027098</v>
+        <v>0.03187957607174421</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03357172029912259</v>
+        <v>0.03444872178389263</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01369686398780985</v>
+        <v>0.01371464022385733</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06384524260035047</v>
+        <v>0.06487999768094542</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03400824470631553</v>
+        <v>0.03635586825194172</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02932962211696213</v>
+        <v>0.03035901775037771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02241149418313023</v>
+        <v>0.02188473588564896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07269837669004599</v>
+        <v>0.07143548424399761</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08336885499762026</v>
+        <v>0.08226383791209464</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09291751429295037</v>
+        <v>0.09283665065562285</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04656826496724964</v>
+        <v>0.04628893579816123</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1270577623925601</v>
+        <v>0.1277384881916654</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05423985412272769</v>
+        <v>0.05447971135312219</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05615217302288012</v>
+        <v>0.05763434093654844</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03044306506778121</v>
+        <v>0.0301796296632158</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09143806034773691</v>
+        <v>0.09284345318897838</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05341791615695964</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1460864898091832</v>
+        <v>0.1460864898091833</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04434469592080176</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01576198620736911</v>
+        <v>0.01576894312086587</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003510568095174182</v>
+        <v>0.003422042764887468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00963103096563509</v>
+        <v>0.009509721463362814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0449539398626894</v>
+        <v>0.04512632907138035</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04241137936612695</v>
+        <v>0.0424101647869887</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03877718221535947</v>
+        <v>0.03881052388384052</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03716419196539425</v>
+        <v>0.03774672611887824</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1249400533208658</v>
+        <v>0.1285007093542884</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03285644502778749</v>
+        <v>0.03242390117302408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02377249086592786</v>
+        <v>0.02349786778842178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02609636202629473</v>
+        <v>0.02429145407745048</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09152276189018831</v>
+        <v>0.09135973308419157</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04487537617606043</v>
+        <v>0.04646239053070392</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02074200453621097</v>
+        <v>0.02025876771595565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03029731167046692</v>
+        <v>0.02950523802542875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0819448334592445</v>
+        <v>0.08263661233771065</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08403756318597505</v>
+        <v>0.08263997099368153</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07903083335555076</v>
+        <v>0.07942639188928194</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07361581263097422</v>
+        <v>0.07260902440356311</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1655590312207524</v>
+        <v>0.1682958535665668</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05800057412362111</v>
+        <v>0.05756829200987032</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04621101296851286</v>
+        <v>0.04525624005730106</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04708140179122674</v>
+        <v>0.04801097185934943</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1202075287229054</v>
+        <v>0.1205267276282247</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02250687170814776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04189776449692276</v>
+        <v>0.04189776449692274</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05532482344817567</v>
@@ -1241,7 +1241,7 @@
         <v>0.04697433041124051</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08253538705177123</v>
+        <v>0.08253538705177124</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02687995851888909</v>
+        <v>0.02474094367435179</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002582311259244183</v>
+        <v>0.0025581604173987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01121073410858887</v>
+        <v>0.01060494549328704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02680427913374209</v>
+        <v>0.02851777511605396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03728472140739087</v>
+        <v>0.0369920590150763</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03194750825971324</v>
+        <v>0.03114791879489272</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04753309226689312</v>
+        <v>0.04719675979388144</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1037648086769498</v>
+        <v>0.1044301661717399</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03543870724007312</v>
+        <v>0.0360245496938682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01898030887009084</v>
+        <v>0.01871827182197671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03438348462472523</v>
+        <v>0.0338442066977416</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0705567697351378</v>
+        <v>0.07021625538151843</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06814068382316293</v>
+        <v>0.06752115466641238</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02508649469294798</v>
+        <v>0.02310877037041843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04414696503675605</v>
+        <v>0.0405554176774521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05826950683157769</v>
+        <v>0.05920822808904679</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07940485961793464</v>
+        <v>0.0844113902859875</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07802896520615901</v>
+        <v>0.07296391189831677</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09838868945900982</v>
+        <v>0.09662952320210393</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1443269816021095</v>
+        <v>0.1437914670152126</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06649344607027545</v>
+        <v>0.06979503539829539</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0424832100568134</v>
+        <v>0.04406478482898307</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06464303240625054</v>
+        <v>0.06437457727498014</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09632609769166826</v>
+        <v>0.0956415817138139</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06445680425548671</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08856609575953088</v>
+        <v>0.08856609575953087</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0503378546213756</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01153724299349119</v>
+        <v>0.01092968868303817</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003103620652071214</v>
+        <v>0.003166067603737523</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003067884989699555</v>
+        <v>0.00300419050527035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02128443325718156</v>
+        <v>0.01961581571481118</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04933351684661823</v>
+        <v>0.04853261804581151</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04210825141188509</v>
+        <v>0.04129299268939784</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04331488640239875</v>
+        <v>0.04314353600240913</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07070003908367932</v>
+        <v>0.06967438760188013</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03499648327239128</v>
+        <v>0.03617640117263281</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.025541948461954</v>
+        <v>0.02668767816789199</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02720859016685759</v>
+        <v>0.02671877475480315</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05045477325349237</v>
+        <v>0.0503705456028751</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04432320071308164</v>
+        <v>0.04552453289761969</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0271640400886578</v>
+        <v>0.02719921059798595</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03035369688778039</v>
+        <v>0.02885889175791288</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05258727896034389</v>
+        <v>0.05115184664097053</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1001484613929724</v>
+        <v>0.1020758451395142</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09127777751915815</v>
+        <v>0.09236086622090105</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09862283841375828</v>
+        <v>0.09257875542861491</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1113571597645964</v>
+        <v>0.1092816031477318</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06600573313861072</v>
+        <v>0.07090880857625005</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05555637729974569</v>
+        <v>0.05564569412393702</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05581349248208226</v>
+        <v>0.05671364108493385</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07500766099099601</v>
+        <v>0.07592929198417134</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.009698354601693264</v>
+        <v>0.00931451136234838</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01034073236547453</v>
+        <v>0.01024540941800109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0245762866368939</v>
+        <v>0.02314560711449821</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01775591051875346</v>
+        <v>0.01751559620427755</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0386278741139256</v>
+        <v>0.04194961164411397</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06193183350362854</v>
+        <v>0.06129062132302269</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07967990428112455</v>
+        <v>0.08212975471133137</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01916668641332619</v>
+        <v>0.01841688776016018</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02681443234223379</v>
+        <v>0.02710943557637526</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04353380565270169</v>
+        <v>0.04518256087900307</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06132473825290386</v>
+        <v>0.06227475888516353</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05706338486719019</v>
+        <v>0.05633008596482147</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03074950843437502</v>
+        <v>0.02923809810548077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04481579856161039</v>
+        <v>0.04789990085170002</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05948611057755605</v>
+        <v>0.05914325979714663</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0632016486742923</v>
+        <v>0.06286417544862145</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09302212183021148</v>
+        <v>0.09413094132624927</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1261396383509122</v>
+        <v>0.1212979237528796</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1213199314275454</v>
+        <v>0.1227805551980429</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05010656112895175</v>
+        <v>0.05019623153092714</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06033029977637348</v>
+        <v>0.06107028748183069</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08569663398554168</v>
+        <v>0.08480984278267259</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08992466232393601</v>
+        <v>0.09224942585026143</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.03495861104430423</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08029384148151097</v>
+        <v>0.08029384148151099</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008692509128400736</v>
+        <v>0.008708487229741897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01073295889843619</v>
+        <v>0.01025038830810581</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03786351220285165</v>
+        <v>0.03871754137461665</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04641144903311164</v>
+        <v>0.04575819345754485</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04737230835116891</v>
+        <v>0.047861442112493</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1043835923584472</v>
+        <v>0.1042560515920733</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02866467287516117</v>
+        <v>0.02923184381377163</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03054471936183459</v>
+        <v>0.03086069574819027</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07435207603476442</v>
+        <v>0.07461281099449839</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01599258400972419</v>
+        <v>0.01660179312838948</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01914065159788012</v>
+        <v>0.01871196765547217</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05365030135680382</v>
+        <v>0.05348538036224133</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06183879413671193</v>
+        <v>0.06131481386291485</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06348332413933093</v>
+        <v>0.0632430416923314</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1227200848699631</v>
+        <v>0.1229930431725637</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03746070802084724</v>
+        <v>0.03757794096337243</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03985214285191605</v>
+        <v>0.04010267353608451</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08641582554305552</v>
+        <v>0.08629134331677588</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3182</v>
+        <v>2952</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4811</v>
+        <v>4155</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9208</v>
+        <v>8687</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8230</v>
+        <v>8006</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3936</v>
+        <v>4538</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24336</v>
+        <v>23261</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13517</v>
+        <v>12572</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13583</v>
+        <v>13007</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6729</v>
+        <v>6942</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>33471</v>
+        <v>33588</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13010</v>
+        <v>13128</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14124</v>
+        <v>13391</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9688</v>
+        <v>9816</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29927</v>
+        <v>28038</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23550</v>
+        <v>23899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24683</v>
+        <v>24768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16029</v>
+        <v>15606</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55732</v>
+        <v>56213</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32491</v>
+        <v>30862</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33716</v>
+        <v>32216</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20053</v>
+        <v>20863</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>70468</v>
+        <v>72243</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8943</v>
+        <v>8742</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3541</v>
+        <v>3670</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1040</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12570</v>
+        <v>12527</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35586</v>
+        <v>36450</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12876</v>
+        <v>13745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26637</v>
+        <v>26629</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38843</v>
+        <v>39267</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>48912</v>
+        <v>48786</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>20241</v>
+        <v>19779</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28812</v>
+        <v>30150</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>58167</v>
+        <v>57847</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24380</v>
+        <v>24242</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13872</v>
+        <v>15567</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10747</v>
+        <v>10130</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36387</v>
+        <v>36308</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>63923</v>
+        <v>62580</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32608</v>
+        <v>31920</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49502</v>
+        <v>49290</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>68065</v>
+        <v>68699</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80432</v>
+        <v>79456</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40904</v>
+        <v>41074</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54340</v>
+        <v>55190</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>92886</v>
+        <v>94650</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7644</v>
+        <v>7678</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5325</v>
+        <v>5904</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3050</v>
+        <v>2984</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20857</v>
+        <v>20200</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31487</v>
+        <v>29327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37046</v>
+        <v>38701</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12243</v>
+        <v>12452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>53188</v>
+        <v>52819</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>42238</v>
+        <v>42349</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>46713</v>
+        <v>47933</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18223</v>
+        <v>18247</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>79220</v>
+        <v>80504</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21720</v>
+        <v>23219</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19999</v>
+        <v>20701</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14995</v>
+        <v>14643</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45134</v>
+        <v>44350</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>57503</v>
+        <v>56741</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65932</v>
+        <v>65874</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30800</v>
+        <v>30615</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>78773</v>
+        <v>79195</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>72053</v>
+        <v>72372</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>78132</v>
+        <v>80195</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>40504</v>
+        <v>40153</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>113457</v>
+        <v>115201</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8183</v>
+        <v>8186</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2158</v>
+        <v>2103</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6222</v>
+        <v>6144</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31446</v>
+        <v>31567</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21869</v>
+        <v>21868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23819</v>
+        <v>23840</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24122</v>
+        <v>24501</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>91928</v>
+        <v>94547</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33999</v>
+        <v>33552</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29214</v>
+        <v>28876</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33798</v>
+        <v>31460</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>131362</v>
+        <v>131128</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23297</v>
+        <v>24121</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12748</v>
+        <v>12451</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19574</v>
+        <v>19062</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>57322</v>
+        <v>57806</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>43333</v>
+        <v>42613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48546</v>
+        <v>48789</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47782</v>
+        <v>47129</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121814</v>
+        <v>123828</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>60018</v>
+        <v>59571</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>56788</v>
+        <v>55614</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60976</v>
+        <v>62180</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>172533</v>
+        <v>172991</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10395</v>
+        <v>9568</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5358</v>
+        <v>5068</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16307</v>
+        <v>17349</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15063</v>
+        <v>14944</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14306</v>
+        <v>13948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23617</v>
+        <v>23450</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>62961</v>
+        <v>63365</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28021</v>
+        <v>28484</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16631</v>
+        <v>16401</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>33516</v>
+        <v>32990</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>85735</v>
+        <v>85321</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26351</v>
+        <v>26111</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10747</v>
+        <v>9900</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21099</v>
+        <v>19382</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35449</v>
+        <v>36020</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32078</v>
+        <v>34101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>34941</v>
+        <v>32673</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>48884</v>
+        <v>48010</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>87573</v>
+        <v>87248</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>52576</v>
+        <v>55187</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>37224</v>
+        <v>38610</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>63012</v>
+        <v>62750</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>117048</v>
+        <v>116216</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3376</v>
+        <v>3198</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8646</v>
+        <v>7968</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16918</v>
+        <v>16643</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>14906</v>
+        <v>14618</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16363</v>
+        <v>16298</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>31049</v>
+        <v>30599</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>22241</v>
+        <v>22991</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>16954</v>
+        <v>17715</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>19375</v>
+        <v>19026</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>42653</v>
+        <v>42582</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12968</v>
+        <v>13320</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8415</v>
+        <v>8426</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10148</v>
+        <v>9648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21362</v>
+        <v>20778</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>34344</v>
+        <v>35005</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>32312</v>
+        <v>32695</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>37256</v>
+        <v>34973</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>48904</v>
+        <v>47993</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>41948</v>
+        <v>45064</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>36877</v>
+        <v>36937</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>39744</v>
+        <v>40385</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>63410</v>
+        <v>64189</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2036</v>
+        <v>1955</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2658</v>
+        <v>2633</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7624</v>
+        <v>7180</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5929</v>
+        <v>5849</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>15025</v>
+        <v>16318</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>24783</v>
+        <v>24527</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>36968</v>
+        <v>38105</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>10423</v>
+        <v>10015</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>17130</v>
+        <v>17318</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>28609</v>
+        <v>29692</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>47475</v>
+        <v>48211</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11977</v>
+        <v>11823</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7683</v>
+        <v>7305</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11518</v>
+        <v>12310</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18452</v>
+        <v>18346</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>21104</v>
+        <v>20991</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>36184</v>
+        <v>36615</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>50477</v>
+        <v>48540</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>56288</v>
+        <v>56966</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>27247</v>
+        <v>27296</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>38541</v>
+        <v>39014</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>56317</v>
+        <v>55734</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>69616</v>
+        <v>71416</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>29778</v>
+        <v>29833</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>36431</v>
+        <v>34793</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>133585</v>
+        <v>136598</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>164997</v>
+        <v>162675</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>167913</v>
+        <v>169647</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>389271</v>
+        <v>388796</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>200104</v>
+        <v>204063</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>211947</v>
+        <v>214139</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>539596</v>
+        <v>541488</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>54787</v>
+        <v>56874</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>64970</v>
+        <v>63515</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>189282</v>
+        <v>188700</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>219843</v>
+        <v>217980</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>225019</v>
+        <v>224168</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>457652</v>
+        <v>458670</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>261507</v>
+        <v>262326</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>276530</v>
+        <v>278268</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>627146</v>
+        <v>626243</v>
       </c>
     </row>
     <row r="36">
